--- a/反义词.xlsx
+++ b/反义词.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F582639D-03B3-4034-9602-1558CE8DA69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03320B-3F94-422D-AB88-BEFC1E65B181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
   <si>
     <t>引く</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,22 @@
   </si>
   <si>
     <t>かくだいばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>積極</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消極</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうきょく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F77"/>
+  <dimension ref="A2:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1756,6 +1772,20 @@
         <v>163</v>
       </c>
     </row>
+    <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/反义词.xlsx
+++ b/反义词.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03320B-3F94-422D-AB88-BEFC1E65B181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8654787A-B059-42F9-B0A5-6151562A917B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="172">
   <si>
     <t>引く</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,6 +707,22 @@
   </si>
   <si>
     <t>しょうきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じみ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1064,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F79"/>
+  <dimension ref="A2:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1786,6 +1802,20 @@
         <v>167</v>
       </c>
     </row>
+    <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
